--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D2(AppYear).xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D2(AppYear).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91147181-00FB-4659-A4E0-DFB3AE65D656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A98F02-595C-421A-B77D-121CDAB50CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Keyword</t>
   </si>
@@ -110,18 +110,6 @@
   </si>
   <si>
     <t>PCA GROUP PROFILE</t>
-  </si>
-  <si>
-    <t>Gaap Fund Group Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GAAP FUND GROUP PROFILE </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GAAP SOURCE/OBJECT PROFILE </t>
-  </si>
-  <si>
-    <t>Gaap Source Object Profile</t>
   </si>
 </sst>
 </file>
@@ -527,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB4CBBA-6B11-4753-932F-7C678298ABFC}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -657,10 +645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33C378F-0C36-415E-9D72-4249D5C1E352}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -720,48 +708,18 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2023</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2023</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D2(AppYear).xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D2(AppYear).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A98F02-595C-421A-B77D-121CDAB50CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC89E135-DE9A-4C27-BE95-00350A3467F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
+    <workbookView xWindow="420" yWindow="90" windowWidth="18780" windowHeight="9910" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Keyword</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>PCA GROUP PROFILE</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>TC_SM_FOU_ListView_D2(AppYear)</t>
   </si>
 </sst>
 </file>
@@ -193,12 +199,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB4CBBA-6B11-4753-932F-7C678298ABFC}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,14 +574,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -582,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -593,13 +600,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -607,7 +614,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -620,14 +627,23 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -636,6 +652,11 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -647,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33C378F-0C36-415E-9D72-4249D5C1E352}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D2(AppYear).xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D2(AppYear).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC89E135-DE9A-4C27-BE95-00350A3467F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11816EEE-E713-415C-BC0B-D34EEA43989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="90" windowWidth="18780" windowHeight="9910" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D2(AppYear).xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D2(AppYear).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC89E135-DE9A-4C27-BE95-00350A3467F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C24FC-6CEF-444E-9805-C3C305E07AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="90" windowWidth="18780" windowHeight="9910" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>WaitForPageLoad</t>
   </si>
   <si>
-    <t>NACUBO Source/Object Profile</t>
-  </si>
-  <si>
     <t>getData=AppYear</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>TC_SM_FOU_ListView_D2(AppYear)</t>
+  </si>
+  <si>
+    <t>NACUBO SOURCE/OBJECT PROFILE</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB4CBBA-6B11-4753-932F-7C678298ABFC}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -574,10 +574,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -589,7 +589,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -617,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33C378F-0C36-415E-9D72-4249D5C1E352}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -692,7 +692,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4">
         <v>2024</v>
@@ -718,10 +718,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="4">
         <v>2023</v>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D2(AppYear).xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D2(AppYear).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C24FC-6CEF-444E-9805-C3C305E07AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF8A07E-9CAD-46C2-915A-AD4931F63D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
+    <workbookView xWindow="350" yWindow="450" windowWidth="18780" windowHeight="9910" activeTab="1" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -103,12 +103,6 @@
     <t>Select Nacubo source/object profile</t>
   </si>
   <si>
-    <t>Select Pca Group Profile</t>
-  </si>
-  <si>
-    <t>PCA GROUP PROFILE</t>
-  </si>
-  <si>
     <t>checkAccessibility</t>
   </si>
   <si>
@@ -116,6 +110,12 @@
   </si>
   <si>
     <t>NACUBO SOURCE/OBJECT PROFILE</t>
+  </si>
+  <si>
+    <t>COMPTROLLER SOURCE/GROUP PROFILE</t>
+  </si>
+  <si>
+    <t>Select COMPTROLLER SOURCE/GROUP PROFILE</t>
   </si>
 </sst>
 </file>
@@ -574,10 +574,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -669,7 +669,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,7 +706,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4">
         <v>2024</v>
@@ -718,10 +718,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4">
         <v>2023</v>
@@ -729,10 +729,9 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
